--- a/biology/Botanique/Aconit_de_Corse/Aconit_de_Corse.xlsx
+++ b/biology/Botanique/Aconit_de_Corse/Aconit_de_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aconit de Corse (Aconitum napellus subsp. corsicum) est une sous-espèce de plantes de la famille des Ranunculaceae.
-Cette sous-espèce est caractérisée par son inflorescence simple, pyramidale, à grandes fleurs, à casque plus ou moins triangulaire[2].
+Cette sous-espèce est caractérisée par son inflorescence simple, pyramidale, à grandes fleurs, à casque plus ou moins triangulaire.
 C'est une plante extrêmement toxique, pouvant facilement entraîner la mort.
 Elle est endémique de Corse.
 </t>
@@ -514,9 +526,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce est inscrite sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain en Annexe I, sous le nom scientifique synonyme de Aconitum corsicum Gáyer. Elle est également inscrite sur la liste des espèces végétales protégées en Corse, sous son nom scientifique actuel[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce est inscrite sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain en Annexe I, sous le nom scientifique synonyme de Aconitum corsicum Gáyer. Elle est également inscrite sur la liste des espèces végétales protégées en Corse, sous son nom scientifique actuel.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aconitum corsicum Gáyer</t>
         </is>
